--- a/Api.ManagerGift/DownloadWordExcel/Báo cáo xuất kho 2020.xlsx
+++ b/Api.ManagerGift/DownloadWordExcel/Báo cáo xuất kho 2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -21,7 +21,7 @@
     <t>BÁO CÁO QUÀ TẶNG XUẤT KHO</t>
   </si>
   <si>
-    <t>Từ ngày 2016-04-07, Đến ngày 2020-04-06</t>
+    <t>Từ ngày 2020-03-29, Đến ngày 2020-04-08</t>
   </si>
   <si>
     <t>STT</t>

--- a/Api.ManagerGift/DownloadWordExcel/Báo cáo xuất kho 2020.xlsx
+++ b/Api.ManagerGift/DownloadWordExcel/Báo cáo xuất kho 2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>BÁO CÁO QUÀ TẶNG XUẤT KHO</t>
   </si>
   <si>
-    <t>Từ ngày 2020-04-05, Đến ngày 2020-04-14</t>
+    <t>Từ ngày 2010-06-05, Đến ngày 2020-05-27</t>
   </si>
   <si>
     <t>STT</t>
@@ -60,19 +60,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>Xe Mercedes</t>
-  </si>
-  <si>
-    <t>XEOTO02</t>
-  </si>
-  <si>
-    <t>Chiếc</t>
-  </si>
-  <si>
-    <t>1000000000.0000</t>
-  </si>
-  <si>
-    <t>11-04-2020</t>
+    <t>đồ sắt - bát sứ - Gốm Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>GVP</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>80,000,000</t>
+  </si>
+  <si>
+    <t>4,000,000,000</t>
+  </si>
+  <si>
+    <t>25-05-2020</t>
   </si>
   <si>
     <t>P. Quản lý bán hàng</t>
@@ -84,13 +90,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>Xe Camry</t>
-  </si>
-  <si>
-    <t>XEOTO01</t>
-  </si>
-  <si>
-    <t>500000000.0000</t>
+    <t>Quà tặng hiện vật - Khẩu trang y tế dệt kin đông xuân - Khẩu trang y tế dệt kim đông xuân màu trắng</t>
+  </si>
+  <si>
+    <t>khautrang_trang</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>27-04-2020</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2018 Aspose Pty Ltd.</t>
@@ -777,63 +786,63 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="15.75"/>
@@ -873,7 +882,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
